--- a/capiq_data/in_process_data/IQ119902.xlsx
+++ b/capiq_data/in_process_data/IQ119902.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D07BA3C-41B2-4BDA-85AF-490DBB42FF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464EFCC3-EF00-432C-AF06-7AE9EFBDD95D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"c2e5e092-fb8f-4f63-a9e9-5bfd2270bbd2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"fa8fc432-3476-4cc1-8d4a-3602aed6b83e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
+  </si>
+  <si>
+    <t>FQ32011</t>
   </si>
   <si>
     <t>FQ42011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +853,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>61.6</v>
+        <v>28.363</v>
       </c>
       <c r="D2">
-        <v>527.70000000000005</v>
+        <v>243.047</v>
       </c>
       <c r="E2">
-        <v>318.39999999999998</v>
+        <v>157.422</v>
       </c>
       <c r="F2">
-        <v>479.3</v>
+        <v>206.74</v>
       </c>
       <c r="G2">
-        <v>1714.3</v>
+        <v>491.32100000000003</v>
       </c>
       <c r="H2">
-        <v>2787.6</v>
+        <v>807.75900000000001</v>
       </c>
       <c r="I2">
-        <v>76.8</v>
+        <v>47.962000000000003</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +892,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>869.8</v>
+        <v>333.91300000000001</v>
       </c>
       <c r="O2">
-        <v>1178.3</v>
+        <v>335.12099999999998</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>170.8</v>
+        <v>20.491</v>
       </c>
       <c r="R2">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="S2">
-        <v>6800</v>
+        <v>3484</v>
       </c>
       <c r="T2">
-        <v>1609.3</v>
+        <v>472.63799999999998</v>
       </c>
       <c r="U2">
-        <v>1075.0999999999999</v>
+        <v>116.39100000000001</v>
       </c>
       <c r="V2">
-        <v>175.9</v>
+        <v>67.58</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-3.2469999999999999</v>
       </c>
       <c r="X2">
-        <v>-31.7</v>
+        <v>-62.994999999999997</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>42.1</v>
+        <v>31.695</v>
       </c>
       <c r="AA2">
-        <v>61.6</v>
+        <v>28.363</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>69.3</v>
+        <v>27.9</v>
       </c>
       <c r="D3">
-        <v>528.29999999999995</v>
+        <v>245.74</v>
       </c>
       <c r="E3">
-        <v>271</v>
+        <v>150.477</v>
       </c>
       <c r="F3">
-        <v>473.7</v>
+        <v>209.01499999999999</v>
       </c>
       <c r="G3">
-        <v>1732.4</v>
+        <v>455.09399999999999</v>
       </c>
       <c r="H3">
-        <v>2902.2</v>
+        <v>777.096</v>
       </c>
       <c r="I3">
-        <v>101.7</v>
+        <v>52.216000000000001</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -852,78 +972,78 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="N3">
-        <v>819.5</v>
+        <v>326.27300000000002</v>
       </c>
       <c r="O3">
-        <v>1151</v>
+        <v>327.48099999999999</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.3</v>
+        <v>6.5970000000000004</v>
       </c>
       <c r="R3">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1751.2</v>
+        <v>449.61500000000001</v>
       </c>
       <c r="U3">
-        <v>1091.4000000000001</v>
+        <v>122.988</v>
       </c>
       <c r="V3">
-        <v>128.4</v>
+        <v>43.076999999999998</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
       <c r="X3">
-        <v>42.7</v>
+        <v>-51.902000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-38.6</v>
+        <v>33.533999999999999</v>
       </c>
       <c r="AA3">
-        <v>69.3</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>71.2</v>
+        <v>19.172999999999998</v>
       </c>
       <c r="D4">
-        <v>546.29999999999995</v>
+        <v>231.36</v>
       </c>
       <c r="E4">
-        <v>297</v>
+        <v>159.36699999999999</v>
       </c>
       <c r="F4">
-        <v>488.9</v>
+        <v>196.167</v>
       </c>
       <c r="G4">
-        <v>1778.8</v>
+        <v>519.702</v>
       </c>
       <c r="H4">
-        <v>2973.7</v>
+        <v>830.41600000000005</v>
       </c>
       <c r="I4">
-        <v>89.8</v>
+        <v>54.241</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +1058,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>827.1</v>
+        <v>358.81400000000002</v>
       </c>
       <c r="O4">
-        <v>1184.5999999999999</v>
+        <v>359.48099999999999</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>40.1</v>
+        <v>-3.96</v>
       </c>
       <c r="R4">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1789.1</v>
+        <v>470.935</v>
       </c>
       <c r="U4">
-        <v>1131.5</v>
+        <v>119.02800000000001</v>
       </c>
       <c r="V4">
-        <v>132.19999999999999</v>
+        <v>53.218000000000004</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-3.2469999999999999</v>
       </c>
       <c r="X4">
-        <v>-69</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>13.1</v>
+        <v>-42.225000000000001</v>
       </c>
       <c r="AA4">
-        <v>71.2</v>
+        <v>19.172999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>72.8</v>
+        <v>21.471</v>
       </c>
       <c r="D5">
-        <v>548.6</v>
+        <v>216.357</v>
       </c>
       <c r="E5">
-        <v>259.2</v>
+        <v>141.43799999999999</v>
       </c>
       <c r="F5">
-        <v>489</v>
+        <v>178.55799999999999</v>
       </c>
       <c r="G5">
-        <v>1698.6</v>
+        <v>483.601</v>
       </c>
       <c r="H5">
-        <v>3005</v>
+        <v>853.173</v>
       </c>
       <c r="I5">
-        <v>81.900000000000006</v>
+        <v>48.731999999999999</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1141,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>813.6</v>
+        <v>360.90899999999999</v>
       </c>
       <c r="O5">
-        <v>1177.5</v>
+        <v>361.62200000000001</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>-28.2</v>
+        <v>-8.4339999999999993</v>
       </c>
       <c r="R5">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1827.5</v>
+        <v>491.55099999999999</v>
       </c>
       <c r="U5">
-        <v>1103.3</v>
+        <v>110.59399999999999</v>
       </c>
       <c r="V5">
-        <v>137.69999999999999</v>
+        <v>33.191000000000003</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-3.2759999999999998</v>
       </c>
       <c r="X5">
-        <v>-48.1</v>
+        <v>4.8140000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-12.7</v>
+        <v>-2.0990000000000002</v>
       </c>
       <c r="AA5">
-        <v>72.8</v>
+        <v>21.471</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>21.768999999999998</v>
       </c>
       <c r="D6">
-        <v>592.4</v>
+        <v>254.03399999999999</v>
       </c>
       <c r="E6">
-        <v>395.1</v>
+        <v>140.465</v>
       </c>
       <c r="F6">
-        <v>534.9</v>
+        <v>212.548</v>
       </c>
       <c r="G6">
-        <v>1895.9</v>
+        <v>563.87</v>
       </c>
       <c r="H6">
-        <v>3227.8</v>
+        <v>902.44399999999996</v>
       </c>
       <c r="I6">
-        <v>89.3</v>
+        <v>53.768999999999998</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1224,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>954.1</v>
+        <v>370.65100000000001</v>
       </c>
       <c r="O6">
-        <v>1344.9</v>
+        <v>373.13</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>53.6</v>
+        <v>31.202000000000002</v>
       </c>
       <c r="R6">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="S6">
-        <v>7500</v>
+        <v>3646</v>
       </c>
       <c r="T6">
-        <v>1882.9</v>
+        <v>529.31399999999996</v>
       </c>
       <c r="U6">
-        <v>1156.9000000000001</v>
+        <v>157.68700000000001</v>
       </c>
       <c r="V6">
-        <v>175.2</v>
+        <v>80.67</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-3.339</v>
       </c>
       <c r="X6">
-        <v>-45.4</v>
+        <v>13.335000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-16.899999999999999</v>
+        <v>-46.027000000000001</v>
       </c>
       <c r="AA6">
-        <v>72</v>
+        <v>21.768999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>78.900000000000006</v>
+        <v>17.640999999999998</v>
       </c>
       <c r="D7">
-        <v>588.6</v>
+        <v>229.327</v>
       </c>
       <c r="E7">
-        <v>300.60000000000002</v>
+        <v>125.65</v>
       </c>
       <c r="F7">
-        <v>529.79999999999995</v>
+        <v>188.63499999999999</v>
       </c>
       <c r="G7">
-        <v>1912.1</v>
+        <v>461.57</v>
       </c>
       <c r="H7">
-        <v>3317</v>
+        <v>929.63099999999997</v>
       </c>
       <c r="I7">
-        <v>88.9</v>
+        <v>47.448999999999998</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1307,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>875.5</v>
+        <v>325.108</v>
       </c>
       <c r="O7">
-        <v>1271.7</v>
+        <v>327.69200000000001</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-82.4</v>
+        <v>-20.059999999999999</v>
       </c>
       <c r="R7">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2045.3</v>
+        <v>601.93899999999996</v>
       </c>
       <c r="U7">
-        <v>1074.5</v>
+        <v>122.167</v>
       </c>
       <c r="V7">
-        <v>139.30000000000001</v>
+        <v>15.204000000000001</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-3.423</v>
       </c>
       <c r="X7">
-        <v>63.7</v>
+        <v>44.689</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-270.5</v>
+        <v>61.365000000000002</v>
       </c>
       <c r="AA7">
-        <v>78.900000000000006</v>
+        <v>17.640999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>64.599999999999994</v>
+        <v>11.76</v>
       </c>
       <c r="D8">
-        <v>568.70000000000005</v>
+        <v>211.40100000000001</v>
       </c>
       <c r="E8">
-        <v>361.4</v>
+        <v>129.03899999999999</v>
       </c>
       <c r="F8">
-        <v>508.9</v>
+        <v>177.191</v>
       </c>
       <c r="G8">
-        <v>1902.7</v>
+        <v>468.38</v>
       </c>
       <c r="H8">
-        <v>3375.9</v>
+        <v>918.00199999999995</v>
       </c>
       <c r="I8">
-        <v>82.9</v>
+        <v>46.084000000000003</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>901.4</v>
+        <v>326.03699999999998</v>
       </c>
       <c r="O8">
-        <v>1324.6</v>
+        <v>328.71100000000001</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>-144.30000000000001</v>
+        <v>7.2080000000000002</v>
       </c>
       <c r="R8">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2051.3000000000002</v>
+        <v>589.29100000000005</v>
       </c>
       <c r="U8">
-        <v>930.2</v>
+        <v>136.76</v>
       </c>
       <c r="V8">
-        <v>107.1</v>
+        <v>22.01</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-3.383</v>
       </c>
       <c r="X8">
-        <v>-87.1</v>
+        <v>-28.783999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-65.400000000000006</v>
+        <v>24.146999999999998</v>
       </c>
       <c r="AA8">
-        <v>64.599999999999994</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>29.4</v>
+        <v>-3.91</v>
       </c>
       <c r="D9">
-        <v>548</v>
+        <v>188.70099999999999</v>
       </c>
       <c r="E9">
-        <v>293.3</v>
+        <v>129.00700000000001</v>
       </c>
       <c r="F9">
-        <v>490.1</v>
+        <v>156.86600000000001</v>
       </c>
       <c r="G9">
-        <v>1724.6</v>
+        <v>436.72399999999999</v>
       </c>
       <c r="H9">
-        <v>3429.2</v>
+        <v>900.48500000000001</v>
       </c>
       <c r="I9">
-        <v>75.900000000000006</v>
+        <v>46.1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>985.3</v>
+        <v>312.32100000000003</v>
       </c>
       <c r="O9">
-        <v>1411.3</v>
+        <v>314.95800000000003</v>
       </c>
       <c r="P9">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>-103.2</v>
+        <v>19.605</v>
       </c>
       <c r="R9">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2017.9</v>
+        <v>585.52700000000004</v>
       </c>
       <c r="U9">
-        <v>827</v>
+        <v>134.642</v>
       </c>
       <c r="V9">
-        <v>157.1</v>
+        <v>5.9720000000000004</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-3.4169999999999998</v>
       </c>
       <c r="X9">
-        <v>19.899999999999999</v>
+        <v>-0.45400000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-123.6</v>
+        <v>29.779</v>
       </c>
       <c r="AA9">
-        <v>29.4</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>74.5</v>
+        <v>6.4130000000000003</v>
       </c>
       <c r="D10">
-        <v>606.9</v>
+        <v>195.51599999999999</v>
       </c>
       <c r="E10">
-        <v>495.1</v>
+        <v>132.803</v>
       </c>
       <c r="F10">
-        <v>544.9</v>
+        <v>156.44300000000001</v>
       </c>
       <c r="G10">
-        <v>2552.4</v>
+        <v>449.63200000000001</v>
       </c>
       <c r="H10">
-        <v>4308.3999999999996</v>
+        <v>883.65</v>
       </c>
       <c r="I10">
-        <v>94.2</v>
+        <v>45.122</v>
       </c>
       <c r="J10">
-        <v>745.6</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1043.7</v>
+        <v>310.02800000000002</v>
       </c>
       <c r="O10">
-        <v>2265.1999999999998</v>
+        <v>314.44200000000001</v>
       </c>
       <c r="P10">
-        <v>745.6</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>785.2</v>
+        <v>21.937000000000001</v>
       </c>
       <c r="R10">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="S10">
-        <v>7300</v>
+        <v>3498</v>
       </c>
       <c r="T10">
-        <v>2043.2</v>
+        <v>569.20799999999997</v>
       </c>
       <c r="U10">
-        <v>1612.2</v>
+        <v>186.37700000000001</v>
       </c>
       <c r="V10">
-        <v>155.6</v>
+        <v>42.448999999999998</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-3.343</v>
       </c>
       <c r="X10">
-        <v>544.9</v>
+        <v>-19.356999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>159.5</v>
+        <v>7.7140000000000004</v>
       </c>
       <c r="AA10">
-        <v>74.5</v>
+        <v>6.4130000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>55.6</v>
+        <v>7.508</v>
       </c>
       <c r="D11">
-        <v>570.4</v>
+        <v>210.76599999999999</v>
       </c>
       <c r="E11">
-        <v>285.8</v>
+        <v>133.596</v>
       </c>
       <c r="F11">
-        <v>502.9</v>
+        <v>172.524</v>
       </c>
       <c r="G11">
-        <v>2511.1</v>
+        <v>435.84300000000002</v>
       </c>
       <c r="H11">
-        <v>4289.7</v>
+        <v>872.46299999999997</v>
       </c>
       <c r="I11">
-        <v>86.1</v>
+        <v>43.966000000000001</v>
       </c>
       <c r="J11">
-        <v>745.8</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>979.8</v>
+        <v>310.26499999999999</v>
       </c>
       <c r="O11">
-        <v>2205.1999999999998</v>
+        <v>313.125</v>
       </c>
       <c r="P11">
-        <v>745.8</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>43.6</v>
+        <v>-6.9340000000000002</v>
       </c>
       <c r="R11">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2084.5</v>
+        <v>559.33799999999997</v>
       </c>
       <c r="U11">
-        <v>1655.8</v>
+        <v>179.44300000000001</v>
       </c>
       <c r="V11">
-        <v>224.1</v>
+        <v>17.405999999999999</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-3.347</v>
       </c>
       <c r="X11">
-        <v>-50.2</v>
+        <v>-18.105</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-67.599999999999994</v>
+        <v>1.8759999999999999</v>
       </c>
       <c r="AA11">
-        <v>55.6</v>
+        <v>7.508</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>61.7</v>
+        <v>32.601999999999997</v>
       </c>
       <c r="D12">
-        <v>561.70000000000005</v>
+        <v>211.70500000000001</v>
       </c>
       <c r="E12">
-        <v>303.89999999999998</v>
+        <v>138.018</v>
       </c>
       <c r="F12">
-        <v>493.9</v>
+        <v>175.65899999999999</v>
       </c>
       <c r="G12">
-        <v>2436.5</v>
+        <v>495.06099999999998</v>
       </c>
       <c r="H12">
-        <v>4223.3</v>
+        <v>916.11300000000006</v>
       </c>
       <c r="I12">
-        <v>74.400000000000006</v>
+        <v>47.238</v>
       </c>
       <c r="J12">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>955.9</v>
+        <v>332.35300000000001</v>
       </c>
       <c r="O12">
-        <v>2172.1999999999998</v>
+        <v>335.29199999999997</v>
       </c>
       <c r="P12">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-254.8</v>
+        <v>39.981000000000002</v>
       </c>
       <c r="R12">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2051.1</v>
+        <v>580.82100000000003</v>
       </c>
       <c r="U12">
-        <v>1401</v>
+        <v>219.42400000000001</v>
       </c>
       <c r="V12">
-        <v>65.3</v>
+        <v>30.164999999999999</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-3.3330000000000002</v>
       </c>
       <c r="X12">
-        <v>-106.6</v>
+        <v>-12.779</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-182.7</v>
+        <v>28.963000000000001</v>
       </c>
       <c r="AA12">
-        <v>61.7</v>
+        <v>32.601999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>57.6</v>
+        <v>22.606999999999999</v>
       </c>
       <c r="D13">
-        <v>555.20000000000005</v>
+        <v>233.86199999999999</v>
       </c>
       <c r="E13">
-        <v>304.10000000000002</v>
+        <v>131.62299999999999</v>
       </c>
       <c r="F13">
-        <v>488.1</v>
+        <v>197.25299999999999</v>
       </c>
       <c r="G13">
-        <v>2517.9</v>
+        <v>525.17499999999995</v>
       </c>
       <c r="H13">
-        <v>4321.5</v>
+        <v>934.82799999999997</v>
       </c>
       <c r="I13">
-        <v>75.3</v>
+        <v>50.816000000000003</v>
       </c>
       <c r="J13">
-        <v>746.2</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>948.1</v>
+        <v>335.21199999999999</v>
       </c>
       <c r="O13">
-        <v>2159.6</v>
+        <v>338.34199999999998</v>
       </c>
       <c r="P13">
-        <v>746.2</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>72.400000000000006</v>
+        <v>15.286</v>
       </c>
       <c r="R13">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2161.9</v>
+        <v>596.48599999999999</v>
       </c>
       <c r="U13">
-        <v>1473.4</v>
+        <v>234.71</v>
       </c>
       <c r="V13">
-        <v>90.6</v>
+        <v>53.378999999999998</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-3.3959999999999999</v>
       </c>
       <c r="X13">
-        <v>20.7</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>5.5</v>
+        <v>-25.911999999999999</v>
       </c>
       <c r="AA13">
-        <v>57.6</v>
+        <v>22.606000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>53.9</v>
+        <v>57.598999999999997</v>
       </c>
       <c r="D14">
-        <v>586.6</v>
+        <v>295.31</v>
       </c>
       <c r="E14">
-        <v>423.7</v>
+        <v>166.816</v>
       </c>
       <c r="F14">
-        <v>514.70000000000005</v>
+        <v>258.08</v>
       </c>
       <c r="G14">
-        <v>2835</v>
+        <v>597.25199999999995</v>
       </c>
       <c r="H14">
-        <v>4595</v>
+        <v>1017.16</v>
       </c>
       <c r="I14">
-        <v>84.5</v>
+        <v>52.307000000000002</v>
       </c>
       <c r="J14">
-        <v>746.4</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1071.5</v>
+        <v>384.92200000000003</v>
       </c>
       <c r="O14">
-        <v>2333.5</v>
+        <v>395.517</v>
       </c>
       <c r="P14">
-        <v>746.4</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>379.6</v>
+        <v>47.539000000000001</v>
       </c>
       <c r="R14">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="S14">
-        <v>7600</v>
+        <v>3493</v>
       </c>
       <c r="T14">
-        <v>2261.5</v>
+        <v>621.64300000000003</v>
       </c>
       <c r="U14">
-        <v>1853</v>
+        <v>282.24900000000002</v>
       </c>
       <c r="V14">
-        <v>183.5</v>
+        <v>119.133</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-3.3319999999999999</v>
       </c>
       <c r="X14">
-        <v>9.6</v>
+        <v>-35.786000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>309.7</v>
+        <v>-28.966000000000001</v>
       </c>
       <c r="AA14">
-        <v>53.9</v>
+        <v>57.598999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>28.3</v>
+        <v>42.505000000000003</v>
       </c>
       <c r="D15">
-        <v>592.5</v>
+        <v>297.87599999999998</v>
       </c>
       <c r="E15">
-        <v>323.3</v>
+        <v>142.63</v>
       </c>
       <c r="F15">
-        <v>513.79999999999995</v>
+        <v>256.00400000000002</v>
       </c>
       <c r="G15">
-        <v>2590.3000000000002</v>
+        <v>565.24300000000005</v>
       </c>
       <c r="H15">
-        <v>4648.6000000000004</v>
+        <v>990.3</v>
       </c>
       <c r="I15">
-        <v>90.3</v>
+        <v>46.639000000000003</v>
       </c>
       <c r="J15">
-        <v>746.6</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1118.7</v>
+        <v>350.32100000000003</v>
       </c>
       <c r="O15">
-        <v>2359.9</v>
+        <v>353.077</v>
       </c>
       <c r="P15">
-        <v>746.6</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-243.4</v>
+        <v>21.898</v>
       </c>
       <c r="R15">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2288.6999999999998</v>
+        <v>637.22299999999996</v>
       </c>
       <c r="U15">
-        <v>1609.6</v>
+        <v>304.14699999999999</v>
       </c>
       <c r="V15">
-        <v>218.7</v>
+        <v>55.162999999999997</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>-3.302</v>
       </c>
       <c r="X15">
-        <v>-40.299999999999997</v>
+        <v>-47.401000000000003</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-84.1</v>
+        <v>30.757000000000001</v>
       </c>
       <c r="AA15">
-        <v>28.3</v>
+        <v>42.505000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>31.3</v>
+        <v>39.164999999999999</v>
       </c>
       <c r="D16">
-        <v>637.1</v>
+        <v>279.57799999999997</v>
       </c>
       <c r="E16">
-        <v>365.3</v>
+        <v>156.273</v>
       </c>
       <c r="F16">
-        <v>549.20000000000005</v>
+        <v>239.36199999999999</v>
       </c>
       <c r="G16">
-        <v>2450</v>
+        <v>642.40300000000002</v>
       </c>
       <c r="H16">
-        <v>4703.3999999999996</v>
+        <v>1049.4059999999999</v>
       </c>
       <c r="I16">
-        <v>92.4</v>
+        <v>44.314999999999998</v>
       </c>
       <c r="J16">
-        <v>746.8</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1157.3</v>
+        <v>385.25200000000001</v>
       </c>
       <c r="O16">
-        <v>2420</v>
+        <v>388.34100000000001</v>
       </c>
       <c r="P16">
-        <v>746.8</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-286.5</v>
+        <v>41.823999999999998</v>
       </c>
       <c r="R16">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2283.4</v>
+        <v>661.06500000000005</v>
       </c>
       <c r="U16">
-        <v>1323.1</v>
+        <v>345.971</v>
       </c>
       <c r="V16">
-        <v>96.2</v>
+        <v>83.483999999999995</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-3.4390000000000001</v>
       </c>
       <c r="X16">
-        <v>-74.400000000000006</v>
+        <v>-14.871</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-65.7</v>
+        <v>-10.592000000000001</v>
       </c>
       <c r="AA16">
-        <v>31.3</v>
+        <v>39.164999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>10.7</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="D17">
-        <v>618</v>
+        <v>300.15800000000002</v>
       </c>
       <c r="E17">
-        <v>375.7</v>
+        <v>168.04400000000001</v>
       </c>
       <c r="F17">
-        <v>532</v>
+        <v>256.76400000000001</v>
       </c>
       <c r="G17">
-        <v>2458.6999999999998</v>
+        <v>697.52</v>
       </c>
       <c r="H17">
-        <v>4736.8</v>
+        <v>1082.127</v>
       </c>
       <c r="I17">
-        <v>99.1</v>
+        <v>50.908999999999999</v>
       </c>
       <c r="J17">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1193.3</v>
+        <v>407.55599999999998</v>
       </c>
       <c r="O17">
-        <v>2468.3000000000002</v>
+        <v>408.84899999999999</v>
       </c>
       <c r="P17">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>21.9</v>
+        <v>31.177</v>
       </c>
       <c r="R17">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2268.5</v>
+        <v>673.27800000000002</v>
       </c>
       <c r="U17">
-        <v>1345</v>
+        <v>377.14800000000002</v>
       </c>
       <c r="V17">
-        <v>136</v>
+        <v>90.778999999999996</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-3.4049999999999998</v>
       </c>
       <c r="X17">
-        <v>-65</v>
+        <v>-136.48400000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>34.700000000000003</v>
+        <v>85.072999999999993</v>
       </c>
       <c r="AA17">
-        <v>10.7</v>
+        <v>74.069999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>11.5</v>
+        <v>65.760000000000005</v>
       </c>
       <c r="D18">
-        <v>664.6</v>
+        <v>356.18799999999999</v>
       </c>
       <c r="E18">
-        <v>458.9</v>
+        <v>196.8</v>
       </c>
       <c r="F18">
-        <v>575.1</v>
+        <v>312.17</v>
       </c>
       <c r="G18">
-        <v>2671.3</v>
+        <v>781.8</v>
       </c>
       <c r="H18">
-        <v>4909.7</v>
+        <v>1142.2</v>
       </c>
       <c r="I18">
-        <v>100.5</v>
+        <v>46.2</v>
       </c>
       <c r="J18">
-        <v>743.1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1400.1</v>
+        <v>468.3</v>
       </c>
       <c r="O18">
-        <v>2690.5</v>
+        <v>494.1</v>
       </c>
       <c r="P18">
-        <v>743.1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>65.599999999999994</v>
+        <v>140.601</v>
       </c>
       <c r="R18">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="S18">
-        <v>8823</v>
+        <v>3477</v>
       </c>
       <c r="T18">
-        <v>2219.1999999999998</v>
+        <v>648.1</v>
       </c>
       <c r="U18">
-        <v>1410.6</v>
+        <v>517.70000000000005</v>
       </c>
       <c r="V18">
-        <v>257.2</v>
+        <v>143.67400000000001</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-3.3540000000000001</v>
       </c>
       <c r="X18">
-        <v>-60.2</v>
+        <v>-118.944</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-81</v>
+        <v>128.46199999999999</v>
       </c>
       <c r="AA18">
-        <v>11.5</v>
+        <v>65.760000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>19.100000000000001</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D19">
-        <v>646.5</v>
+        <v>359.1</v>
       </c>
       <c r="E19">
-        <v>316</v>
+        <v>190.21600000000001</v>
       </c>
       <c r="F19">
-        <v>554.70000000000005</v>
+        <v>315.60000000000002</v>
       </c>
       <c r="G19">
-        <v>2341</v>
+        <v>796.71</v>
       </c>
       <c r="H19">
-        <v>4775.8999999999996</v>
+        <v>1177.605</v>
       </c>
       <c r="I19">
-        <v>93.1</v>
+        <v>61.191000000000003</v>
       </c>
       <c r="J19">
-        <v>747.4</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1270.3</v>
+        <v>436.9</v>
       </c>
       <c r="O19">
-        <v>2551.5</v>
+        <v>466.81400000000002</v>
       </c>
       <c r="P19">
-        <v>747.4</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>-227.9</v>
+        <v>0.4</v>
       </c>
       <c r="R19">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2224.4</v>
+        <v>710.79100000000005</v>
       </c>
       <c r="U19">
-        <v>1182.7</v>
+        <v>518.07799999999997</v>
       </c>
       <c r="V19">
-        <v>86.5</v>
+        <v>63.3</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="X19">
-        <v>-61.3</v>
+        <v>-36.9</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-195.3</v>
+        <v>-4.7</v>
       </c>
       <c r="AA19">
-        <v>19.100000000000001</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-268.60000000000002</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="D20">
-        <v>609.5</v>
+        <v>376.8</v>
       </c>
       <c r="E20">
-        <v>394.1</v>
+        <v>202.41499999999999</v>
       </c>
       <c r="F20">
-        <v>516.5</v>
+        <v>332.3</v>
       </c>
       <c r="G20">
-        <v>2899.8</v>
+        <v>806.01</v>
       </c>
       <c r="H20">
-        <v>5341.8</v>
+        <v>1181.8920000000001</v>
       </c>
       <c r="I20">
-        <v>90.8</v>
+        <v>62.658000000000001</v>
       </c>
       <c r="J20">
-        <v>1486.2</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1313.8</v>
+        <v>435.10500000000002</v>
       </c>
       <c r="O20">
-        <v>3439.7</v>
+        <v>469.61200000000002</v>
       </c>
       <c r="P20">
-        <v>1486.2</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>290.39999999999998</v>
+        <v>-39.4</v>
       </c>
       <c r="R20">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1902.1</v>
+        <v>712.28</v>
       </c>
       <c r="U20">
-        <v>1473.1</v>
+        <v>478.66300000000001</v>
       </c>
       <c r="V20">
-        <v>77.2</v>
+        <v>113.2</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>628.79999999999995</v>
+        <v>-95.8</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-390.9</v>
+        <v>-23.1</v>
       </c>
       <c r="AA20">
-        <v>-268.60000000000002</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-43.8</v>
+        <v>95.7</v>
       </c>
       <c r="D21">
-        <v>599.79999999999995</v>
+        <v>381.5</v>
       </c>
       <c r="E21">
-        <v>362.3</v>
+        <v>201.76900000000001</v>
       </c>
       <c r="F21">
-        <v>508.8</v>
+        <v>339</v>
       </c>
       <c r="G21">
-        <v>2747.5</v>
+        <v>859.78599999999994</v>
       </c>
       <c r="H21">
-        <v>5220</v>
+        <v>1290.6289999999999</v>
       </c>
       <c r="I21">
-        <v>104.6</v>
+        <v>62.482999999999997</v>
       </c>
       <c r="J21">
-        <v>1486.9</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1311.2</v>
+        <v>463.423</v>
       </c>
       <c r="O21">
-        <v>3486.9</v>
+        <v>513.52800000000002</v>
       </c>
       <c r="P21">
-        <v>1486.9</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-135.6</v>
+        <v>-87.8</v>
       </c>
       <c r="R21">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1733.1</v>
+        <v>777.101</v>
       </c>
       <c r="U21">
-        <v>1337.5</v>
+        <v>390.87799999999999</v>
       </c>
       <c r="V21">
-        <v>80.400000000000006</v>
+        <v>124.9</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-126.2</v>
+        <v>-83.5</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-8</v>
+        <v>-114.2</v>
       </c>
       <c r="AA21">
-        <v>-43.8</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-37.200000000000003</v>
+        <v>83.4</v>
       </c>
       <c r="D22">
-        <v>648.29999999999995</v>
+        <v>419.8</v>
       </c>
       <c r="E22">
-        <v>653.6</v>
+        <v>261.39999999999998</v>
       </c>
       <c r="F22">
-        <v>553.4</v>
+        <v>379.2</v>
       </c>
       <c r="G22">
-        <v>2993.1</v>
+        <v>746.8</v>
       </c>
       <c r="H22">
-        <v>5515.3</v>
+        <v>1355.8</v>
       </c>
       <c r="I22">
-        <v>119.9</v>
+        <v>56.4</v>
       </c>
       <c r="J22">
-        <v>1487.7</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1591</v>
+        <v>487.8</v>
       </c>
       <c r="O22">
-        <v>3895.7</v>
+        <v>552.79999999999995</v>
       </c>
       <c r="P22">
-        <v>1487.7</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.5</v>
+        <v>-103.7</v>
       </c>
       <c r="R22">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="S22">
-        <v>9500</v>
+        <v>4813</v>
       </c>
       <c r="T22">
-        <v>1619.6</v>
+        <v>803</v>
       </c>
       <c r="U22">
-        <v>1353</v>
+        <v>287.2</v>
       </c>
       <c r="V22">
-        <v>169.9</v>
+        <v>113.8</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-98.1</v>
+        <v>-89.4</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>50.1</v>
+        <v>66.7</v>
       </c>
       <c r="AA22">
-        <v>-37.200000000000003</v>
+        <v>83.4</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-167.7</v>
+        <v>48.5</v>
       </c>
       <c r="D23">
-        <v>511.9</v>
+        <v>436</v>
       </c>
       <c r="E23">
-        <v>256.39999999999998</v>
+        <v>276.39999999999998</v>
       </c>
       <c r="F23">
-        <v>430.4</v>
+        <v>386.1</v>
       </c>
       <c r="G23">
-        <v>2629</v>
+        <v>786.9</v>
       </c>
       <c r="H23">
-        <v>5205.6000000000004</v>
+        <v>1439.6</v>
       </c>
       <c r="I23">
-        <v>107.2</v>
+        <v>59.8</v>
       </c>
       <c r="J23">
-        <v>1488.4</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1474.5</v>
+        <v>520</v>
       </c>
       <c r="O23">
-        <v>3769.7</v>
+        <v>593.29999999999995</v>
       </c>
       <c r="P23">
-        <v>1488.4</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>-129.6</v>
+        <v>-29.9</v>
       </c>
       <c r="R23">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>4881</v>
       </c>
       <c r="T23">
-        <v>1435.9</v>
+        <v>846.3</v>
       </c>
       <c r="U23">
-        <v>1223.4000000000001</v>
+        <v>257.3</v>
       </c>
       <c r="V23">
-        <v>164.4</v>
+        <v>90.2</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-67.2</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-147.30000000000001</v>
+        <v>-48.9</v>
       </c>
       <c r="AA23">
-        <v>-167.7</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-98.2</v>
+        <v>86.8</v>
       </c>
       <c r="D24">
-        <v>550.70000000000005</v>
+        <v>449.6</v>
       </c>
       <c r="E24">
-        <v>306.89999999999998</v>
+        <v>258.7</v>
       </c>
       <c r="F24">
-        <v>476.3</v>
+        <v>393.8</v>
       </c>
       <c r="G24">
-        <v>2486.5</v>
+        <v>835.9</v>
       </c>
       <c r="H24">
-        <v>5047.3999999999996</v>
+        <v>1475.5</v>
       </c>
       <c r="I24">
-        <v>110.3</v>
+        <v>47.8</v>
       </c>
       <c r="J24">
-        <v>1489.2</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1559.6</v>
+        <v>496.8</v>
       </c>
       <c r="O24">
-        <v>3715.7</v>
+        <v>580.5</v>
       </c>
       <c r="P24">
-        <v>1489.2</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>243.9</v>
+        <v>181.8</v>
       </c>
       <c r="R24">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>4928</v>
       </c>
       <c r="T24">
-        <v>1331.7</v>
+        <v>895</v>
       </c>
       <c r="U24">
-        <v>1467.3</v>
+        <v>439.1</v>
       </c>
       <c r="V24">
-        <v>-18</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-168.5</v>
+        <v>-73.599999999999994</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>482.4</v>
+        <v>99.5</v>
       </c>
       <c r="AA24">
-        <v>-98.2</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-142.80000000000001</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>489.6</v>
+        <v>456.8</v>
       </c>
       <c r="E25">
-        <v>259.8</v>
+        <v>256</v>
       </c>
       <c r="F25">
-        <v>418.5</v>
+        <v>400.5</v>
       </c>
       <c r="G25">
-        <v>2332.1</v>
+        <v>968.6</v>
       </c>
       <c r="H25">
-        <v>4829.2</v>
+        <v>1600.3</v>
       </c>
       <c r="I25">
-        <v>102.8</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="J25">
-        <v>1489.9</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1597.6</v>
+        <v>512.20000000000005</v>
       </c>
       <c r="O25">
-        <v>3768.6</v>
+        <v>599.70000000000005</v>
       </c>
       <c r="P25">
-        <v>1489.9</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-30.8</v>
+        <v>75.8</v>
       </c>
       <c r="R25">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1060.5999999999999</v>
+        <v>1000.6</v>
       </c>
       <c r="U25">
-        <v>1436.5</v>
+        <v>514.9</v>
       </c>
       <c r="V25">
-        <v>7.7</v>
+        <v>132.9</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-118.6</v>
+        <v>9.9</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>115.8</v>
+        <v>-53.4</v>
       </c>
       <c r="AA25">
-        <v>-142.80000000000001</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-173.4</v>
+        <v>96.4</v>
       </c>
       <c r="D26">
-        <v>478.8</v>
+        <v>497.4</v>
       </c>
       <c r="E26">
-        <v>452.3</v>
+        <v>301.3</v>
       </c>
       <c r="F26">
-        <v>403.9</v>
+        <v>442.8</v>
       </c>
       <c r="G26">
-        <v>2460.6</v>
+        <v>1189.7</v>
       </c>
       <c r="H26">
-        <v>4798.1000000000004</v>
+        <v>1797.5</v>
       </c>
       <c r="I26">
-        <v>93.5</v>
+        <v>61</v>
       </c>
       <c r="J26">
-        <v>1092</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2185.4</v>
+        <v>574.20000000000005</v>
       </c>
       <c r="O26">
-        <v>4064.5</v>
+        <v>682.5</v>
       </c>
       <c r="P26">
-        <v>1490.7</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-223.4</v>
+        <v>151</v>
       </c>
       <c r="R26">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="S26">
-        <v>9000</v>
+        <v>5169</v>
       </c>
       <c r="T26">
-        <v>733.6</v>
+        <v>1115</v>
       </c>
       <c r="U26">
-        <v>1213.0999999999999</v>
+        <v>665.9</v>
       </c>
       <c r="V26">
-        <v>15.6</v>
+        <v>190.8</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-224</v>
+        <v>0.1</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-3.9</v>
+        <v>-29.5</v>
       </c>
       <c r="AA26">
-        <v>-173.4</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-129.6</v>
+        <v>83.3</v>
       </c>
       <c r="D27">
-        <v>485.7</v>
+        <v>508.6</v>
       </c>
       <c r="E27">
-        <v>231.5</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="F27">
-        <v>412.2</v>
+        <v>455.9</v>
       </c>
       <c r="G27">
-        <v>2139.6999999999998</v>
+        <v>1384.5</v>
       </c>
       <c r="H27">
-        <v>4431.3999999999996</v>
+        <v>1989.4</v>
       </c>
       <c r="I27">
-        <v>93.4</v>
+        <v>76.8</v>
       </c>
       <c r="J27">
-        <v>1092.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2049.6</v>
+        <v>585</v>
       </c>
       <c r="O27">
-        <v>3923.3</v>
+        <v>745.2</v>
       </c>
       <c r="P27">
-        <v>1491.5</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>127.1</v>
+        <v>96.4</v>
       </c>
       <c r="R27">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>508.1</v>
+        <v>1244.2</v>
       </c>
       <c r="U27">
-        <v>1340.2</v>
+        <v>762.3</v>
       </c>
       <c r="V27">
-        <v>45.2</v>
+        <v>191.6</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-178.8</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>263.2</v>
+        <v>-89.7</v>
       </c>
       <c r="AA27">
-        <v>-129.6</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-144</v>
+        <v>91.6</v>
       </c>
       <c r="D28">
-        <v>501.8</v>
+        <v>525.9</v>
       </c>
       <c r="E28">
-        <v>265.60000000000002</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="F28">
-        <v>431.2</v>
+        <v>474</v>
       </c>
       <c r="G28">
-        <v>2083.3000000000002</v>
+        <v>1264.9000000000001</v>
       </c>
       <c r="H28">
-        <v>4354</v>
+        <v>1878.1</v>
       </c>
       <c r="I28">
-        <v>93</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="J28">
-        <v>1584.9</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1701.7</v>
+        <v>597.5</v>
       </c>
       <c r="O28">
-        <v>4038.5</v>
+        <v>765.4</v>
       </c>
       <c r="P28">
-        <v>1584.9</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-166.1</v>
+        <v>12.6</v>
       </c>
       <c r="R28">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>315.5</v>
+        <v>1112.7</v>
       </c>
       <c r="U28">
-        <v>1174.0999999999999</v>
+        <v>774.9</v>
       </c>
       <c r="V28">
-        <v>-72.5</v>
+        <v>136.6</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-39.200000000000003</v>
+        <v>-241.3</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-31.8</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="AA28">
-        <v>-144</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-119.8</v>
+        <v>84.8</v>
       </c>
       <c r="D29">
-        <v>515.29999999999995</v>
+        <v>538.4</v>
       </c>
       <c r="E29">
-        <v>307.8</v>
+        <v>299.2</v>
       </c>
       <c r="F29">
-        <v>441.8</v>
+        <v>486.8</v>
       </c>
       <c r="G29">
-        <v>1871.9</v>
+        <v>1320.3</v>
       </c>
       <c r="H29">
-        <v>4152</v>
+        <v>1991</v>
       </c>
       <c r="I29">
-        <v>93.3</v>
+        <v>77.2</v>
       </c>
       <c r="J29">
-        <v>1585.4</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1750</v>
+        <v>608.1</v>
       </c>
       <c r="O29">
-        <v>4044.7</v>
+        <v>812.2</v>
       </c>
       <c r="P29">
-        <v>1585.4</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>-148.9</v>
+        <v>53.4</v>
       </c>
       <c r="R29">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>107.3</v>
+        <v>1178.8</v>
       </c>
       <c r="U29">
-        <v>1025.2</v>
+        <v>828.3</v>
       </c>
       <c r="V29">
-        <v>-51.1</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-156.19999999999999</v>
+        <v>-61.5</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>78.3</v>
+        <v>7.6</v>
       </c>
       <c r="AA29">
-        <v>-119.8</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-173.5</v>
+        <v>96.5</v>
       </c>
       <c r="D30">
-        <v>553.79999999999995</v>
+        <v>599.1</v>
       </c>
       <c r="E30">
-        <v>438.2</v>
+        <v>386.5</v>
       </c>
       <c r="F30">
-        <v>484.4</v>
+        <v>547.5</v>
       </c>
       <c r="G30">
-        <v>1877.9</v>
+        <v>1481.8</v>
       </c>
       <c r="H30">
-        <v>4113.6000000000004</v>
+        <v>2212.1999999999998</v>
       </c>
       <c r="I30">
-        <v>94.7</v>
+        <v>79.3</v>
       </c>
       <c r="J30">
-        <v>1586</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2123.1999999999998</v>
+        <v>730.3</v>
       </c>
       <c r="O30">
-        <v>4369.6000000000004</v>
+        <v>981.7</v>
       </c>
       <c r="P30">
-        <v>1586</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>52.8</v>
+        <v>89.6</v>
       </c>
       <c r="R30">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="S30">
-        <v>8800</v>
+        <v>7300</v>
       </c>
       <c r="T30">
-        <v>-256</v>
+        <v>1230.5</v>
       </c>
       <c r="U30">
-        <v>1078</v>
+        <v>917.9</v>
       </c>
       <c r="V30">
-        <v>79.3</v>
+        <v>219</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-282.39999999999998</v>
+        <v>-72.900000000000006</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>259.60000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="AA30">
-        <v>-173.5</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-82.4</v>
+        <v>94.6</v>
       </c>
       <c r="D31">
-        <v>559.9</v>
+        <v>598.79999999999995</v>
       </c>
       <c r="E31">
-        <v>206.7</v>
+        <v>333.5</v>
       </c>
       <c r="F31">
-        <v>496.7</v>
+        <v>540.79999999999995</v>
       </c>
       <c r="G31">
-        <v>1698</v>
+        <v>1423.4</v>
       </c>
       <c r="H31">
-        <v>3911.4</v>
+        <v>2140</v>
       </c>
       <c r="I31">
-        <v>103.5</v>
+        <v>73.7</v>
       </c>
       <c r="J31">
-        <v>1586.6</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1852.6</v>
+        <v>734.5</v>
       </c>
       <c r="O31">
-        <v>4040</v>
+        <v>1004.6</v>
       </c>
       <c r="P31">
-        <v>1586.6</v>
+        <v>40</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="R31">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-128.6</v>
+        <v>1135.4000000000001</v>
       </c>
       <c r="U31">
-        <v>1093</v>
+        <v>909.1</v>
       </c>
       <c r="V31">
-        <v>-16.899999999999999</v>
+        <v>185.3</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-11.7</v>
+        <v>-181.3</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>64.900000000000006</v>
+        <v>-1.3</v>
       </c>
       <c r="AA31">
-        <v>-82.4</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-39.4</v>
+        <v>89.8</v>
       </c>
       <c r="D32">
-        <v>611.70000000000005</v>
+        <v>619.5</v>
       </c>
       <c r="E32">
-        <v>234.4</v>
+        <v>325.2</v>
       </c>
       <c r="F32">
-        <v>545.29999999999995</v>
+        <v>559.79999999999995</v>
       </c>
       <c r="G32">
-        <v>1598.8</v>
+        <v>1402.5</v>
       </c>
       <c r="H32">
-        <v>3833</v>
+        <v>2443.5</v>
       </c>
       <c r="I32">
-        <v>82.2</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="J32">
-        <v>1587.2</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1915.1</v>
+        <v>869</v>
       </c>
       <c r="O32">
-        <v>4074.6</v>
+        <v>1183.5999999999999</v>
       </c>
       <c r="P32">
-        <v>1587.2</v>
+        <v>120</v>
       </c>
       <c r="Q32">
-        <v>-197.6</v>
+        <v>20.5</v>
       </c>
       <c r="R32">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-241.6</v>
+        <v>1259.9000000000001</v>
       </c>
       <c r="U32">
-        <v>895.4</v>
+        <v>929.6</v>
       </c>
       <c r="V32">
-        <v>43.3</v>
+        <v>215</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-145.6</v>
+        <v>94.8</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-28.4</v>
+        <v>0.4</v>
       </c>
       <c r="AA32">
-        <v>-39.4</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>-23.7</v>
+        <v>104.6</v>
       </c>
       <c r="D33">
-        <v>660.9</v>
+        <v>607.1</v>
       </c>
       <c r="E33">
-        <v>309</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="F33">
-        <v>592.20000000000005</v>
+        <v>554.20000000000005</v>
       </c>
       <c r="G33">
-        <v>1590</v>
+        <v>1310.4000000000001</v>
       </c>
       <c r="H33">
-        <v>3774.4</v>
+        <v>2373.6999999999998</v>
       </c>
       <c r="I33">
-        <v>88.6</v>
+        <v>76</v>
       </c>
       <c r="J33">
-        <v>1587.8</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1985.5</v>
+        <v>664.3</v>
       </c>
       <c r="O33">
-        <v>4112.7</v>
+        <v>973.6</v>
       </c>
       <c r="P33">
-        <v>1587.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q33">
-        <v>-19.7</v>
+        <v>-133.19999999999999</v>
       </c>
       <c r="R33">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>-338.3</v>
+        <v>1400.1</v>
       </c>
       <c r="U33">
-        <v>875.7</v>
+        <v>796.4</v>
       </c>
       <c r="V33">
-        <v>39.200000000000003</v>
+        <v>107.2</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-134.6</v>
+        <v>-77</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>84.4</v>
+        <v>-105.1</v>
       </c>
       <c r="AA33">
-        <v>-23.7</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>64.7</v>
+        <v>-105.4</v>
       </c>
       <c r="D34">
-        <v>737.3</v>
+        <v>489.8</v>
       </c>
       <c r="E34">
-        <v>474.3</v>
+        <v>316.5</v>
       </c>
       <c r="F34">
-        <v>665.2</v>
+        <v>441.3</v>
       </c>
       <c r="G34">
-        <v>1620</v>
+        <v>1388</v>
       </c>
       <c r="H34">
-        <v>4729.2</v>
+        <v>2420.6999999999998</v>
       </c>
       <c r="I34">
-        <v>101.6</v>
+        <v>62.4</v>
       </c>
       <c r="J34">
-        <v>2087.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>52.1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2301.1999999999998</v>
+        <v>800.1</v>
       </c>
       <c r="O34">
-        <v>4940.1000000000004</v>
+        <v>1110</v>
       </c>
       <c r="P34">
-        <v>2087.6999999999998</v>
+        <v>52.1</v>
       </c>
       <c r="Q34">
-        <v>10.3</v>
+        <v>121.2</v>
       </c>
       <c r="R34">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="S34">
-        <v>9600</v>
+        <v>7800</v>
       </c>
       <c r="T34">
-        <v>-210.9</v>
+        <v>1310.7</v>
       </c>
       <c r="U34">
-        <v>886</v>
+        <v>917.6</v>
       </c>
       <c r="V34">
-        <v>311.5</v>
+        <v>86.4</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>443.8</v>
+        <v>49.1</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>271.89999999999998</v>
+        <v>70.8</v>
       </c>
       <c r="AA34">
-        <v>64.7</v>
+        <v>-105.4</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-24.2</v>
+        <v>-32.1</v>
       </c>
       <c r="D35">
-        <v>735.5</v>
+        <v>425.8</v>
       </c>
       <c r="E35">
-        <v>268.10000000000002</v>
+        <v>228.6</v>
       </c>
       <c r="F35">
-        <v>662</v>
+        <v>373.5</v>
       </c>
       <c r="G35">
-        <v>1422.3</v>
+        <v>1302.2</v>
       </c>
       <c r="H35">
-        <v>4808.5</v>
+        <v>2269.5</v>
       </c>
       <c r="I35">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="J35">
-        <v>1963.3</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-52.2</v>
       </c>
       <c r="M35">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>2220.6999999999998</v>
+        <v>681.8</v>
       </c>
       <c r="O35">
-        <v>5053.8</v>
+        <v>941</v>
       </c>
       <c r="P35">
-        <v>2288.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q35">
-        <v>-2.8</v>
+        <v>-37.1</v>
       </c>
       <c r="R35">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-245.3</v>
+        <v>1328.5</v>
       </c>
       <c r="U35">
-        <v>883.2</v>
+        <v>880.5</v>
       </c>
       <c r="V35">
-        <v>221.2</v>
+        <v>27.2</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-192.4</v>
+        <v>-24.6</v>
       </c>
       <c r="Y35">
-        <v>265.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-15.2</v>
+        <v>-24.9</v>
       </c>
       <c r="AA35">
-        <v>-24.2</v>
+        <v>-32.1</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>40.200000000000003</v>
+        <v>10.4</v>
       </c>
       <c r="D36">
-        <v>796.8</v>
+        <v>414.9</v>
       </c>
       <c r="E36">
-        <v>347.4</v>
+        <v>223.9</v>
       </c>
       <c r="F36">
-        <v>725.9</v>
+        <v>364.8</v>
       </c>
       <c r="G36">
-        <v>1515.5</v>
+        <v>1267.3</v>
       </c>
       <c r="H36">
-        <v>4872.7</v>
+        <v>2311.1</v>
       </c>
       <c r="I36">
-        <v>93</v>
+        <v>56.7</v>
       </c>
       <c r="J36">
-        <v>1389.8</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2707.3</v>
+        <v>661.7</v>
       </c>
       <c r="O36">
-        <v>5067</v>
+        <v>926</v>
       </c>
       <c r="P36">
-        <v>2156</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>40.700000000000003</v>
+        <v>-212</v>
       </c>
       <c r="R36">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>-194.3</v>
+        <v>1385.1</v>
       </c>
       <c r="U36">
-        <v>923.9</v>
+        <v>668.5</v>
       </c>
       <c r="V36">
-        <v>219.3</v>
+        <v>47.3</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-173.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Y36">
-        <v>258.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>22.7</v>
+        <v>-267.60000000000002</v>
       </c>
       <c r="AA36">
-        <v>40.200000000000003</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>66.7</v>
+        <v>29.6</v>
       </c>
       <c r="D37">
-        <v>842.7</v>
+        <v>416.9</v>
       </c>
       <c r="E37">
-        <v>520.29999999999995</v>
+        <v>215.7</v>
       </c>
       <c r="F37">
-        <v>771.9</v>
+        <v>371.9</v>
       </c>
       <c r="G37">
-        <v>1706.8</v>
+        <v>1287.0999999999999</v>
       </c>
       <c r="H37">
-        <v>5036.6000000000004</v>
+        <v>2315.4</v>
       </c>
       <c r="I37">
-        <v>106.1</v>
+        <v>60</v>
       </c>
       <c r="J37">
-        <v>1290.3</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2840.2</v>
+        <v>627.29999999999995</v>
       </c>
       <c r="O37">
-        <v>5208.1000000000004</v>
+        <v>883.7</v>
       </c>
       <c r="P37">
-        <v>2043.5</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>32.299999999999997</v>
+        <v>30</v>
       </c>
       <c r="R37">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>-171.5</v>
+        <v>1431.7</v>
       </c>
       <c r="U37">
-        <v>956.2</v>
+        <v>698.5</v>
       </c>
       <c r="V37">
-        <v>276.39999999999998</v>
+        <v>46.7</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-233.9</v>
+        <v>-16</v>
       </c>
       <c r="Y37">
-        <v>239.8</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AA37">
-        <v>66.7</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>131.80000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="D38">
-        <v>899.3</v>
+        <v>456.1</v>
       </c>
       <c r="E38">
-        <v>652.29999999999995</v>
+        <v>277.39999999999998</v>
       </c>
       <c r="F38">
-        <v>824.6</v>
+        <v>411.7</v>
       </c>
       <c r="G38">
-        <v>2659.3</v>
+        <v>1379.6</v>
       </c>
       <c r="H38">
-        <v>6179.3</v>
+        <v>2447.1999999999998</v>
       </c>
       <c r="I38">
-        <v>83.7</v>
+        <v>67.8</v>
       </c>
       <c r="J38">
-        <v>1635.1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3219.2</v>
+        <v>704</v>
       </c>
       <c r="O38">
-        <v>6318.4</v>
+        <v>973.7</v>
       </c>
       <c r="P38">
-        <v>2544.6</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>818.5</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="R38">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="S38">
-        <v>10100</v>
+        <v>6800</v>
       </c>
       <c r="T38">
-        <v>-139.1</v>
+        <v>1473.5</v>
       </c>
       <c r="U38">
-        <v>1774.7</v>
+        <v>838.7</v>
       </c>
       <c r="V38">
-        <v>698.2</v>
+        <v>125.6</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>133.19999999999999</v>
+        <v>-21.3</v>
       </c>
       <c r="Y38">
-        <v>411.7</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>60.1</v>
       </c>
       <c r="AA38">
-        <v>131.80000000000001</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>66.5</v>
+        <v>36.9</v>
       </c>
       <c r="D39">
-        <v>885.7</v>
+        <v>474.6</v>
       </c>
       <c r="E39">
-        <v>356.5</v>
+        <v>218.1</v>
       </c>
       <c r="F39">
-        <v>811.4</v>
+        <v>423.3</v>
       </c>
       <c r="G39">
-        <v>2024.3</v>
+        <v>1394</v>
       </c>
       <c r="H39">
-        <v>5543.9</v>
+        <v>2501.6999999999998</v>
       </c>
       <c r="I39">
-        <v>85.2</v>
+        <v>90.4</v>
       </c>
       <c r="J39">
-        <v>1635.6</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>2578.3000000000002</v>
+        <v>711</v>
       </c>
       <c r="O39">
-        <v>5683</v>
+        <v>987.6</v>
       </c>
       <c r="P39">
-        <v>2083.6</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-385</v>
+        <v>99.4</v>
       </c>
       <c r="R39">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-139.1</v>
+        <v>1514.1</v>
       </c>
       <c r="U39">
-        <v>1389.7</v>
+        <v>938.1</v>
       </c>
       <c r="V39">
-        <v>327.3</v>
+        <v>139.1</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-630.20000000000005</v>
+        <v>-22.6</v>
       </c>
       <c r="Y39">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-11</v>
+        <v>-10.7</v>
       </c>
       <c r="AA39">
-        <v>66.5</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>98.2</v>
+        <v>59.9</v>
       </c>
       <c r="D40">
-        <v>913.1</v>
+        <v>472.8</v>
       </c>
       <c r="E40">
-        <v>490.1</v>
+        <v>231</v>
       </c>
       <c r="F40">
-        <v>839.7</v>
+        <v>424.4</v>
       </c>
       <c r="G40">
-        <v>2203.9</v>
+        <v>1417.4</v>
       </c>
       <c r="H40">
-        <v>5747.3</v>
+        <v>2525</v>
       </c>
       <c r="I40">
-        <v>99.2</v>
+        <v>79</v>
       </c>
       <c r="J40">
-        <v>1636.1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2619.6</v>
+        <v>723.1</v>
       </c>
       <c r="O40">
-        <v>5680</v>
+        <v>999.2</v>
       </c>
       <c r="P40">
-        <v>2083.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>50.1</v>
+        <v>-88.1</v>
       </c>
       <c r="R40">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>67.3</v>
+        <v>1525.8</v>
       </c>
       <c r="U40">
-        <v>1439.8</v>
+        <v>850</v>
       </c>
       <c r="V40">
-        <v>91.2</v>
+        <v>111.5</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-12.4</v>
+        <v>-66.5</v>
       </c>
       <c r="Y40">
-        <v>393.3</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>5</v>
+        <v>-119.4</v>
       </c>
       <c r="AA40">
-        <v>98.2</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>132.19999999999999</v>
+        <v>53.6</v>
       </c>
       <c r="D41">
-        <v>952.4</v>
+        <v>476.7</v>
       </c>
       <c r="E41">
-        <v>540.4</v>
+        <v>240.1</v>
       </c>
       <c r="F41">
-        <v>876.5</v>
+        <v>428.2</v>
       </c>
       <c r="G41">
-        <v>2339.8000000000002</v>
+        <v>1470.8</v>
       </c>
       <c r="H41">
-        <v>5944.5</v>
+        <v>2581.1</v>
       </c>
       <c r="I41">
-        <v>121.3</v>
+        <v>86.1</v>
       </c>
       <c r="J41">
-        <v>1636.6</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2811.6</v>
+        <v>734.7</v>
       </c>
       <c r="O41">
-        <v>5875.2</v>
+        <v>1025</v>
       </c>
       <c r="P41">
-        <v>2098.9</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>97.2</v>
+        <v>54.3</v>
       </c>
       <c r="R41">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>69.3</v>
+        <v>1556.1</v>
       </c>
       <c r="U41">
-        <v>1537</v>
+        <v>904.3</v>
       </c>
       <c r="V41">
-        <v>361.1</v>
+        <v>114.3</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-201.4</v>
+        <v>-38.6</v>
       </c>
       <c r="Y41">
-        <v>398.2</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>2</v>
+        <v>-8.5</v>
       </c>
       <c r="AA41">
-        <v>132.19999999999999</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44227</v>
+        <v>40574</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>61.6</v>
+      </c>
+      <c r="D42">
+        <v>527.70000000000005</v>
+      </c>
+      <c r="E42">
+        <v>318.39999999999998</v>
+      </c>
+      <c r="F42">
+        <v>479.3</v>
+      </c>
+      <c r="G42">
+        <v>1714.3</v>
+      </c>
+      <c r="H42">
+        <v>2787.6</v>
+      </c>
+      <c r="I42">
+        <v>76.8</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>869.8</v>
+      </c>
+      <c r="O42">
+        <v>1178.3</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>170.8</v>
+      </c>
+      <c r="R42">
+        <v>40574</v>
+      </c>
+      <c r="S42">
+        <v>6800</v>
+      </c>
+      <c r="T42">
+        <v>1609.3</v>
+      </c>
+      <c r="U42">
+        <v>1075.0999999999999</v>
+      </c>
+      <c r="V42">
+        <v>175.9</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-31.7</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>42.1</v>
+      </c>
+      <c r="AA42">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>69.3</v>
+      </c>
+      <c r="D43">
+        <v>528.29999999999995</v>
+      </c>
+      <c r="E43">
+        <v>271</v>
+      </c>
+      <c r="F43">
+        <v>473.7</v>
+      </c>
+      <c r="G43">
+        <v>1732.4</v>
+      </c>
+      <c r="H43">
+        <v>2902.2</v>
+      </c>
+      <c r="I43">
+        <v>101.7</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>819.5</v>
+      </c>
+      <c r="O43">
+        <v>1151</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>16.3</v>
+      </c>
+      <c r="R43">
+        <v>40663</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1751.2</v>
+      </c>
+      <c r="U43">
+        <v>1091.4000000000001</v>
+      </c>
+      <c r="V43">
+        <v>128.4</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>42.7</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-38.6</v>
+      </c>
+      <c r="AA43">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>71.2</v>
+      </c>
+      <c r="D44">
+        <v>546.29999999999995</v>
+      </c>
+      <c r="E44">
+        <v>297</v>
+      </c>
+      <c r="F44">
+        <v>488.9</v>
+      </c>
+      <c r="G44">
+        <v>1778.8</v>
+      </c>
+      <c r="H44">
+        <v>2973.7</v>
+      </c>
+      <c r="I44">
+        <v>89.8</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>827.1</v>
+      </c>
+      <c r="O44">
+        <v>1184.5999999999999</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>40.1</v>
+      </c>
+      <c r="R44">
+        <v>40755</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1789.1</v>
+      </c>
+      <c r="U44">
+        <v>1131.5</v>
+      </c>
+      <c r="V44">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-69</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>13.1</v>
+      </c>
+      <c r="AA44">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>72.8</v>
+      </c>
+      <c r="D45">
+        <v>548.6</v>
+      </c>
+      <c r="E45">
+        <v>259.2</v>
+      </c>
+      <c r="F45">
+        <v>489</v>
+      </c>
+      <c r="G45">
+        <v>1698.6</v>
+      </c>
+      <c r="H45">
+        <v>3005</v>
+      </c>
+      <c r="I45">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>813.6</v>
+      </c>
+      <c r="O45">
+        <v>1177.5</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-28.2</v>
+      </c>
+      <c r="R45">
+        <v>40847</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1827.5</v>
+      </c>
+      <c r="U45">
+        <v>1103.3</v>
+      </c>
+      <c r="V45">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-48.1</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-12.7</v>
+      </c>
+      <c r="AA45">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40939</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>72</v>
+      </c>
+      <c r="D46">
+        <v>592.4</v>
+      </c>
+      <c r="E46">
+        <v>395.1</v>
+      </c>
+      <c r="F46">
+        <v>534.9</v>
+      </c>
+      <c r="G46">
+        <v>1895.9</v>
+      </c>
+      <c r="H46">
+        <v>3227.8</v>
+      </c>
+      <c r="I46">
+        <v>89.3</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>954.1</v>
+      </c>
+      <c r="O46">
+        <v>1344.9</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>53.6</v>
+      </c>
+      <c r="R46">
+        <v>40939</v>
+      </c>
+      <c r="S46">
+        <v>7500</v>
+      </c>
+      <c r="T46">
+        <v>1882.9</v>
+      </c>
+      <c r="U46">
+        <v>1156.9000000000001</v>
+      </c>
+      <c r="V46">
+        <v>175.2</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-45.4</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="D47">
+        <v>588.6</v>
+      </c>
+      <c r="E47">
+        <v>300.60000000000002</v>
+      </c>
+      <c r="F47">
+        <v>529.79999999999995</v>
+      </c>
+      <c r="G47">
+        <v>1912.1</v>
+      </c>
+      <c r="H47">
+        <v>3317</v>
+      </c>
+      <c r="I47">
+        <v>88.9</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>875.5</v>
+      </c>
+      <c r="O47">
+        <v>1271.7</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-82.4</v>
+      </c>
+      <c r="R47">
+        <v>41029</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2045.3</v>
+      </c>
+      <c r="U47">
+        <v>1074.5</v>
+      </c>
+      <c r="V47">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>63.7</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-270.5</v>
+      </c>
+      <c r="AA47">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D48">
+        <v>568.70000000000005</v>
+      </c>
+      <c r="E48">
+        <v>361.4</v>
+      </c>
+      <c r="F48">
+        <v>508.9</v>
+      </c>
+      <c r="G48">
+        <v>1902.7</v>
+      </c>
+      <c r="H48">
+        <v>3375.9</v>
+      </c>
+      <c r="I48">
+        <v>82.9</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>901.4</v>
+      </c>
+      <c r="O48">
+        <v>1324.6</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-144.30000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41121</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2051.3000000000002</v>
+      </c>
+      <c r="U48">
+        <v>930.2</v>
+      </c>
+      <c r="V48">
+        <v>107.1</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-87.1</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-65.400000000000006</v>
+      </c>
+      <c r="AA48">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>29.4</v>
+      </c>
+      <c r="D49">
+        <v>548</v>
+      </c>
+      <c r="E49">
+        <v>293.3</v>
+      </c>
+      <c r="F49">
+        <v>490.1</v>
+      </c>
+      <c r="G49">
+        <v>1724.6</v>
+      </c>
+      <c r="H49">
+        <v>3429.2</v>
+      </c>
+      <c r="I49">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>110</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>985.3</v>
+      </c>
+      <c r="O49">
+        <v>1411.3</v>
+      </c>
+      <c r="P49">
+        <v>110</v>
+      </c>
+      <c r="Q49">
+        <v>-103.2</v>
+      </c>
+      <c r="R49">
+        <v>41213</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2017.9</v>
+      </c>
+      <c r="U49">
+        <v>827</v>
+      </c>
+      <c r="V49">
+        <v>157.1</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-123.6</v>
+      </c>
+      <c r="AA49">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>74.5</v>
+      </c>
+      <c r="D50">
+        <v>606.9</v>
+      </c>
+      <c r="E50">
+        <v>495.1</v>
+      </c>
+      <c r="F50">
+        <v>544.9</v>
+      </c>
+      <c r="G50">
+        <v>2552.4</v>
+      </c>
+      <c r="H50">
+        <v>4308.3999999999996</v>
+      </c>
+      <c r="I50">
+        <v>94.2</v>
+      </c>
+      <c r="J50">
+        <v>745.6</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1043.7</v>
+      </c>
+      <c r="O50">
+        <v>2265.1999999999998</v>
+      </c>
+      <c r="P50">
+        <v>745.6</v>
+      </c>
+      <c r="Q50">
+        <v>785.2</v>
+      </c>
+      <c r="R50">
+        <v>41305</v>
+      </c>
+      <c r="S50">
+        <v>7300</v>
+      </c>
+      <c r="T50">
+        <v>2043.2</v>
+      </c>
+      <c r="U50">
+        <v>1612.2</v>
+      </c>
+      <c r="V50">
+        <v>155.6</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>544.9</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>159.5</v>
+      </c>
+      <c r="AA50">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>55.6</v>
+      </c>
+      <c r="D51">
+        <v>570.4</v>
+      </c>
+      <c r="E51">
+        <v>285.8</v>
+      </c>
+      <c r="F51">
+        <v>502.9</v>
+      </c>
+      <c r="G51">
+        <v>2511.1</v>
+      </c>
+      <c r="H51">
+        <v>4289.7</v>
+      </c>
+      <c r="I51">
+        <v>86.1</v>
+      </c>
+      <c r="J51">
+        <v>745.8</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>979.8</v>
+      </c>
+      <c r="O51">
+        <v>2205.1999999999998</v>
+      </c>
+      <c r="P51">
+        <v>745.8</v>
+      </c>
+      <c r="Q51">
+        <v>43.6</v>
+      </c>
+      <c r="R51">
+        <v>41394</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2084.5</v>
+      </c>
+      <c r="U51">
+        <v>1655.8</v>
+      </c>
+      <c r="V51">
+        <v>224.1</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-50.2</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-67.599999999999994</v>
+      </c>
+      <c r="AA51">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>61.7</v>
+      </c>
+      <c r="D52">
+        <v>561.70000000000005</v>
+      </c>
+      <c r="E52">
+        <v>303.89999999999998</v>
+      </c>
+      <c r="F52">
+        <v>493.9</v>
+      </c>
+      <c r="G52">
+        <v>2436.5</v>
+      </c>
+      <c r="H52">
+        <v>4223.3</v>
+      </c>
+      <c r="I52">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="J52">
+        <v>746</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>955.9</v>
+      </c>
+      <c r="O52">
+        <v>2172.1999999999998</v>
+      </c>
+      <c r="P52">
+        <v>746</v>
+      </c>
+      <c r="Q52">
+        <v>-254.8</v>
+      </c>
+      <c r="R52">
+        <v>41486</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2051.1</v>
+      </c>
+      <c r="U52">
+        <v>1401</v>
+      </c>
+      <c r="V52">
+        <v>65.3</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-106.6</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-182.7</v>
+      </c>
+      <c r="AA52">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>57.6</v>
+      </c>
+      <c r="D53">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="E53">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="F53">
+        <v>488.1</v>
+      </c>
+      <c r="G53">
+        <v>2517.9</v>
+      </c>
+      <c r="H53">
+        <v>4321.5</v>
+      </c>
+      <c r="I53">
+        <v>75.3</v>
+      </c>
+      <c r="J53">
+        <v>746.2</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>948.1</v>
+      </c>
+      <c r="O53">
+        <v>2159.6</v>
+      </c>
+      <c r="P53">
+        <v>746.2</v>
+      </c>
+      <c r="Q53">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="R53">
+        <v>41578</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2161.9</v>
+      </c>
+      <c r="U53">
+        <v>1473.4</v>
+      </c>
+      <c r="V53">
+        <v>90.6</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>20.7</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>5.5</v>
+      </c>
+      <c r="AA53">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>53.9</v>
+      </c>
+      <c r="D54">
+        <v>586.6</v>
+      </c>
+      <c r="E54">
+        <v>423.7</v>
+      </c>
+      <c r="F54">
+        <v>514.70000000000005</v>
+      </c>
+      <c r="G54">
+        <v>2835</v>
+      </c>
+      <c r="H54">
+        <v>4595</v>
+      </c>
+      <c r="I54">
+        <v>84.5</v>
+      </c>
+      <c r="J54">
+        <v>746.4</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1071.5</v>
+      </c>
+      <c r="O54">
+        <v>2333.5</v>
+      </c>
+      <c r="P54">
+        <v>746.4</v>
+      </c>
+      <c r="Q54">
+        <v>379.6</v>
+      </c>
+      <c r="R54">
+        <v>41670</v>
+      </c>
+      <c r="S54">
+        <v>7600</v>
+      </c>
+      <c r="T54">
+        <v>2261.5</v>
+      </c>
+      <c r="U54">
+        <v>1853</v>
+      </c>
+      <c r="V54">
+        <v>183.5</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>9.6</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>309.7</v>
+      </c>
+      <c r="AA54">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>28.3</v>
+      </c>
+      <c r="D55">
+        <v>592.5</v>
+      </c>
+      <c r="E55">
+        <v>323.3</v>
+      </c>
+      <c r="F55">
+        <v>513.79999999999995</v>
+      </c>
+      <c r="G55">
+        <v>2590.3000000000002</v>
+      </c>
+      <c r="H55">
+        <v>4648.6000000000004</v>
+      </c>
+      <c r="I55">
+        <v>90.3</v>
+      </c>
+      <c r="J55">
+        <v>746.6</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1118.7</v>
+      </c>
+      <c r="O55">
+        <v>2359.9</v>
+      </c>
+      <c r="P55">
+        <v>746.6</v>
+      </c>
+      <c r="Q55">
+        <v>-243.4</v>
+      </c>
+      <c r="R55">
+        <v>41759</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2288.6999999999998</v>
+      </c>
+      <c r="U55">
+        <v>1609.6</v>
+      </c>
+      <c r="V55">
+        <v>218.7</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-84.1</v>
+      </c>
+      <c r="AA55">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>31.3</v>
+      </c>
+      <c r="D56">
+        <v>637.1</v>
+      </c>
+      <c r="E56">
+        <v>365.3</v>
+      </c>
+      <c r="F56">
+        <v>549.20000000000005</v>
+      </c>
+      <c r="G56">
+        <v>2450</v>
+      </c>
+      <c r="H56">
+        <v>4703.3999999999996</v>
+      </c>
+      <c r="I56">
+        <v>92.4</v>
+      </c>
+      <c r="J56">
+        <v>746.8</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1157.3</v>
+      </c>
+      <c r="O56">
+        <v>2420</v>
+      </c>
+      <c r="P56">
+        <v>746.8</v>
+      </c>
+      <c r="Q56">
+        <v>-286.5</v>
+      </c>
+      <c r="R56">
+        <v>41851</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2283.4</v>
+      </c>
+      <c r="U56">
+        <v>1323.1</v>
+      </c>
+      <c r="V56">
+        <v>96.2</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-74.400000000000006</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-65.7</v>
+      </c>
+      <c r="AA56">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>10.7</v>
+      </c>
+      <c r="D57">
+        <v>618</v>
+      </c>
+      <c r="E57">
+        <v>375.7</v>
+      </c>
+      <c r="F57">
+        <v>532</v>
+      </c>
+      <c r="G57">
+        <v>2458.6999999999998</v>
+      </c>
+      <c r="H57">
+        <v>4736.8</v>
+      </c>
+      <c r="I57">
+        <v>99.1</v>
+      </c>
+      <c r="J57">
+        <v>747</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1193.3</v>
+      </c>
+      <c r="O57">
+        <v>2468.3000000000002</v>
+      </c>
+      <c r="P57">
+        <v>747</v>
+      </c>
+      <c r="Q57">
+        <v>21.9</v>
+      </c>
+      <c r="R57">
+        <v>41943</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2268.5</v>
+      </c>
+      <c r="U57">
+        <v>1345</v>
+      </c>
+      <c r="V57">
+        <v>136</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-65</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AA57">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>11.5</v>
+      </c>
+      <c r="D58">
+        <v>664.6</v>
+      </c>
+      <c r="E58">
+        <v>458.9</v>
+      </c>
+      <c r="F58">
+        <v>575.1</v>
+      </c>
+      <c r="G58">
+        <v>2671.3</v>
+      </c>
+      <c r="H58">
+        <v>4909.7</v>
+      </c>
+      <c r="I58">
+        <v>100.5</v>
+      </c>
+      <c r="J58">
+        <v>743.1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1400.1</v>
+      </c>
+      <c r="O58">
+        <v>2690.5</v>
+      </c>
+      <c r="P58">
+        <v>743.1</v>
+      </c>
+      <c r="Q58">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="R58">
+        <v>42035</v>
+      </c>
+      <c r="S58">
+        <v>8823</v>
+      </c>
+      <c r="T58">
+        <v>2219.1999999999998</v>
+      </c>
+      <c r="U58">
+        <v>1410.6</v>
+      </c>
+      <c r="V58">
+        <v>257.2</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-60.2</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-81</v>
+      </c>
+      <c r="AA58">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D59">
+        <v>646.5</v>
+      </c>
+      <c r="E59">
+        <v>316</v>
+      </c>
+      <c r="F59">
+        <v>554.70000000000005</v>
+      </c>
+      <c r="G59">
+        <v>2341</v>
+      </c>
+      <c r="H59">
+        <v>4775.8999999999996</v>
+      </c>
+      <c r="I59">
+        <v>93.1</v>
+      </c>
+      <c r="J59">
+        <v>747.4</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1270.3</v>
+      </c>
+      <c r="O59">
+        <v>2551.5</v>
+      </c>
+      <c r="P59">
+        <v>747.4</v>
+      </c>
+      <c r="Q59">
+        <v>-227.9</v>
+      </c>
+      <c r="R59">
+        <v>42124</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2224.4</v>
+      </c>
+      <c r="U59">
+        <v>1182.7</v>
+      </c>
+      <c r="V59">
+        <v>86.5</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-61.3</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-195.3</v>
+      </c>
+      <c r="AA59">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>-268.60000000000002</v>
+      </c>
+      <c r="D60">
+        <v>609.5</v>
+      </c>
+      <c r="E60">
+        <v>394.1</v>
+      </c>
+      <c r="F60">
+        <v>516.5</v>
+      </c>
+      <c r="G60">
+        <v>2899.8</v>
+      </c>
+      <c r="H60">
+        <v>5341.8</v>
+      </c>
+      <c r="I60">
+        <v>90.8</v>
+      </c>
+      <c r="J60">
+        <v>1486.2</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1313.8</v>
+      </c>
+      <c r="O60">
+        <v>3439.7</v>
+      </c>
+      <c r="P60">
+        <v>1486.2</v>
+      </c>
+      <c r="Q60">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="R60">
+        <v>42216</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1902.1</v>
+      </c>
+      <c r="U60">
+        <v>1473.1</v>
+      </c>
+      <c r="V60">
+        <v>77.2</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>628.79999999999995</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-390.9</v>
+      </c>
+      <c r="AA60">
+        <v>-268.60000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-43.8</v>
+      </c>
+      <c r="D61">
+        <v>599.79999999999995</v>
+      </c>
+      <c r="E61">
+        <v>362.3</v>
+      </c>
+      <c r="F61">
+        <v>508.8</v>
+      </c>
+      <c r="G61">
+        <v>2747.5</v>
+      </c>
+      <c r="H61">
+        <v>5220</v>
+      </c>
+      <c r="I61">
+        <v>104.6</v>
+      </c>
+      <c r="J61">
+        <v>1486.9</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1311.2</v>
+      </c>
+      <c r="O61">
+        <v>3486.9</v>
+      </c>
+      <c r="P61">
+        <v>1486.9</v>
+      </c>
+      <c r="Q61">
+        <v>-135.6</v>
+      </c>
+      <c r="R61">
+        <v>42308</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1733.1</v>
+      </c>
+      <c r="U61">
+        <v>1337.5</v>
+      </c>
+      <c r="V61">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-126.2</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-8</v>
+      </c>
+      <c r="AA61">
+        <v>-43.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="D62">
+        <v>648.29999999999995</v>
+      </c>
+      <c r="E62">
+        <v>653.6</v>
+      </c>
+      <c r="F62">
+        <v>553.4</v>
+      </c>
+      <c r="G62">
+        <v>2993.1</v>
+      </c>
+      <c r="H62">
+        <v>5515.3</v>
+      </c>
+      <c r="I62">
+        <v>119.9</v>
+      </c>
+      <c r="J62">
+        <v>1487.7</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1591</v>
+      </c>
+      <c r="O62">
+        <v>3895.7</v>
+      </c>
+      <c r="P62">
+        <v>1487.7</v>
+      </c>
+      <c r="Q62">
+        <v>15.5</v>
+      </c>
+      <c r="R62">
+        <v>42400</v>
+      </c>
+      <c r="S62">
+        <v>9500</v>
+      </c>
+      <c r="T62">
+        <v>1619.6</v>
+      </c>
+      <c r="U62">
+        <v>1353</v>
+      </c>
+      <c r="V62">
+        <v>169.9</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-98.1</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>50.1</v>
+      </c>
+      <c r="AA62">
+        <v>-37.200000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-167.7</v>
+      </c>
+      <c r="D63">
+        <v>511.9</v>
+      </c>
+      <c r="E63">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="F63">
+        <v>430.4</v>
+      </c>
+      <c r="G63">
+        <v>2629</v>
+      </c>
+      <c r="H63">
+        <v>5205.6000000000004</v>
+      </c>
+      <c r="I63">
+        <v>107.2</v>
+      </c>
+      <c r="J63">
+        <v>1488.4</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1474.5</v>
+      </c>
+      <c r="O63">
+        <v>3769.7</v>
+      </c>
+      <c r="P63">
+        <v>1488.4</v>
+      </c>
+      <c r="Q63">
+        <v>-129.6</v>
+      </c>
+      <c r="R63">
+        <v>42490</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1435.9</v>
+      </c>
+      <c r="U63">
+        <v>1223.4000000000001</v>
+      </c>
+      <c r="V63">
+        <v>164.4</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-67.2</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-147.30000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>-167.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>-98.2</v>
+      </c>
+      <c r="D64">
+        <v>550.70000000000005</v>
+      </c>
+      <c r="E64">
+        <v>306.89999999999998</v>
+      </c>
+      <c r="F64">
+        <v>476.3</v>
+      </c>
+      <c r="G64">
+        <v>2486.5</v>
+      </c>
+      <c r="H64">
+        <v>5047.3999999999996</v>
+      </c>
+      <c r="I64">
+        <v>110.3</v>
+      </c>
+      <c r="J64">
+        <v>1489.2</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1559.6</v>
+      </c>
+      <c r="O64">
+        <v>3715.7</v>
+      </c>
+      <c r="P64">
+        <v>1489.2</v>
+      </c>
+      <c r="Q64">
+        <v>243.9</v>
+      </c>
+      <c r="R64">
+        <v>42582</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1331.7</v>
+      </c>
+      <c r="U64">
+        <v>1467.3</v>
+      </c>
+      <c r="V64">
+        <v>-18</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-168.5</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>482.4</v>
+      </c>
+      <c r="AA64">
+        <v>-98.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>-142.80000000000001</v>
+      </c>
+      <c r="D65">
+        <v>489.6</v>
+      </c>
+      <c r="E65">
+        <v>259.8</v>
+      </c>
+      <c r="F65">
+        <v>418.5</v>
+      </c>
+      <c r="G65">
+        <v>2332.1</v>
+      </c>
+      <c r="H65">
+        <v>4829.2</v>
+      </c>
+      <c r="I65">
+        <v>102.8</v>
+      </c>
+      <c r="J65">
+        <v>1489.9</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1597.6</v>
+      </c>
+      <c r="O65">
+        <v>3768.6</v>
+      </c>
+      <c r="P65">
+        <v>1489.9</v>
+      </c>
+      <c r="Q65">
+        <v>-30.8</v>
+      </c>
+      <c r="R65">
+        <v>42674</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1060.5999999999999</v>
+      </c>
+      <c r="U65">
+        <v>1436.5</v>
+      </c>
+      <c r="V65">
+        <v>7.7</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-118.6</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>115.8</v>
+      </c>
+      <c r="AA65">
+        <v>-142.80000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-173.4</v>
+      </c>
+      <c r="D66">
+        <v>478.8</v>
+      </c>
+      <c r="E66">
+        <v>452.3</v>
+      </c>
+      <c r="F66">
+        <v>403.9</v>
+      </c>
+      <c r="G66">
+        <v>2460.6</v>
+      </c>
+      <c r="H66">
+        <v>4798.1000000000004</v>
+      </c>
+      <c r="I66">
+        <v>93.5</v>
+      </c>
+      <c r="J66">
+        <v>1092</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2185.4</v>
+      </c>
+      <c r="O66">
+        <v>4064.5</v>
+      </c>
+      <c r="P66">
+        <v>1490.7</v>
+      </c>
+      <c r="Q66">
+        <v>-223.4</v>
+      </c>
+      <c r="R66">
+        <v>42766</v>
+      </c>
+      <c r="S66">
+        <v>9000</v>
+      </c>
+      <c r="T66">
+        <v>733.6</v>
+      </c>
+      <c r="U66">
+        <v>1213.0999999999999</v>
+      </c>
+      <c r="V66">
+        <v>15.6</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-224</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-3.9</v>
+      </c>
+      <c r="AA66">
+        <v>-173.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-129.6</v>
+      </c>
+      <c r="D67">
+        <v>485.7</v>
+      </c>
+      <c r="E67">
+        <v>231.5</v>
+      </c>
+      <c r="F67">
+        <v>412.2</v>
+      </c>
+      <c r="G67">
+        <v>2139.6999999999998</v>
+      </c>
+      <c r="H67">
+        <v>4431.3999999999996</v>
+      </c>
+      <c r="I67">
+        <v>93.4</v>
+      </c>
+      <c r="J67">
+        <v>1092.4000000000001</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2049.6</v>
+      </c>
+      <c r="O67">
+        <v>3923.3</v>
+      </c>
+      <c r="P67">
+        <v>1491.5</v>
+      </c>
+      <c r="Q67">
+        <v>127.1</v>
+      </c>
+      <c r="R67">
+        <v>42855</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>508.1</v>
+      </c>
+      <c r="U67">
+        <v>1340.2</v>
+      </c>
+      <c r="V67">
+        <v>45.2</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-178.8</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>263.2</v>
+      </c>
+      <c r="AA67">
+        <v>-129.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-144</v>
+      </c>
+      <c r="D68">
+        <v>501.8</v>
+      </c>
+      <c r="E68">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="F68">
+        <v>431.2</v>
+      </c>
+      <c r="G68">
+        <v>2083.3000000000002</v>
+      </c>
+      <c r="H68">
+        <v>4354</v>
+      </c>
+      <c r="I68">
+        <v>93</v>
+      </c>
+      <c r="J68">
+        <v>1584.9</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1701.7</v>
+      </c>
+      <c r="O68">
+        <v>4038.5</v>
+      </c>
+      <c r="P68">
+        <v>1584.9</v>
+      </c>
+      <c r="Q68">
+        <v>-166.1</v>
+      </c>
+      <c r="R68">
+        <v>42947</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>315.5</v>
+      </c>
+      <c r="U68">
+        <v>1174.0999999999999</v>
+      </c>
+      <c r="V68">
+        <v>-72.5</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-31.8</v>
+      </c>
+      <c r="AA68">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-119.8</v>
+      </c>
+      <c r="D69">
+        <v>515.29999999999995</v>
+      </c>
+      <c r="E69">
+        <v>307.8</v>
+      </c>
+      <c r="F69">
+        <v>441.8</v>
+      </c>
+      <c r="G69">
+        <v>1871.9</v>
+      </c>
+      <c r="H69">
+        <v>4152</v>
+      </c>
+      <c r="I69">
+        <v>93.3</v>
+      </c>
+      <c r="J69">
+        <v>1585.4</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1750</v>
+      </c>
+      <c r="O69">
+        <v>4044.7</v>
+      </c>
+      <c r="P69">
+        <v>1585.4</v>
+      </c>
+      <c r="Q69">
+        <v>-148.9</v>
+      </c>
+      <c r="R69">
+        <v>43039</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>107.3</v>
+      </c>
+      <c r="U69">
+        <v>1025.2</v>
+      </c>
+      <c r="V69">
+        <v>-51.1</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-156.19999999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>78.3</v>
+      </c>
+      <c r="AA69">
+        <v>-119.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-173.5</v>
+      </c>
+      <c r="D70">
+        <v>553.79999999999995</v>
+      </c>
+      <c r="E70">
+        <v>438.2</v>
+      </c>
+      <c r="F70">
+        <v>484.4</v>
+      </c>
+      <c r="G70">
+        <v>1877.9</v>
+      </c>
+      <c r="H70">
+        <v>4113.6000000000004</v>
+      </c>
+      <c r="I70">
+        <v>94.7</v>
+      </c>
+      <c r="J70">
+        <v>1586</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2123.1999999999998</v>
+      </c>
+      <c r="O70">
+        <v>4369.6000000000004</v>
+      </c>
+      <c r="P70">
+        <v>1586</v>
+      </c>
+      <c r="Q70">
+        <v>52.8</v>
+      </c>
+      <c r="R70">
+        <v>43131</v>
+      </c>
+      <c r="S70">
+        <v>8800</v>
+      </c>
+      <c r="T70">
+        <v>-256</v>
+      </c>
+      <c r="U70">
+        <v>1078</v>
+      </c>
+      <c r="V70">
+        <v>79.3</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-282.39999999999998</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="AA70">
+        <v>-173.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>-82.4</v>
+      </c>
+      <c r="D71">
+        <v>559.9</v>
+      </c>
+      <c r="E71">
+        <v>206.7</v>
+      </c>
+      <c r="F71">
+        <v>496.7</v>
+      </c>
+      <c r="G71">
+        <v>1698</v>
+      </c>
+      <c r="H71">
+        <v>3911.4</v>
+      </c>
+      <c r="I71">
+        <v>103.5</v>
+      </c>
+      <c r="J71">
+        <v>1586.6</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1852.6</v>
+      </c>
+      <c r="O71">
+        <v>4040</v>
+      </c>
+      <c r="P71">
+        <v>1586.6</v>
+      </c>
+      <c r="Q71">
+        <v>15</v>
+      </c>
+      <c r="R71">
+        <v>43220</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>-128.6</v>
+      </c>
+      <c r="U71">
+        <v>1093</v>
+      </c>
+      <c r="V71">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-11.7</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AA71">
+        <v>-82.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>-39.4</v>
+      </c>
+      <c r="D72">
+        <v>611.70000000000005</v>
+      </c>
+      <c r="E72">
+        <v>234.4</v>
+      </c>
+      <c r="F72">
+        <v>545.29999999999995</v>
+      </c>
+      <c r="G72">
+        <v>1598.8</v>
+      </c>
+      <c r="H72">
+        <v>3833</v>
+      </c>
+      <c r="I72">
+        <v>82.2</v>
+      </c>
+      <c r="J72">
+        <v>1587.2</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1915.1</v>
+      </c>
+      <c r="O72">
+        <v>4074.6</v>
+      </c>
+      <c r="P72">
+        <v>1587.2</v>
+      </c>
+      <c r="Q72">
+        <v>-197.6</v>
+      </c>
+      <c r="R72">
+        <v>43312</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>-241.6</v>
+      </c>
+      <c r="U72">
+        <v>895.4</v>
+      </c>
+      <c r="V72">
+        <v>43.3</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-145.6</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-28.4</v>
+      </c>
+      <c r="AA72">
+        <v>-39.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>-23.7</v>
+      </c>
+      <c r="D73">
+        <v>660.9</v>
+      </c>
+      <c r="E73">
+        <v>309</v>
+      </c>
+      <c r="F73">
+        <v>592.20000000000005</v>
+      </c>
+      <c r="G73">
+        <v>1590</v>
+      </c>
+      <c r="H73">
+        <v>3774.4</v>
+      </c>
+      <c r="I73">
+        <v>88.6</v>
+      </c>
+      <c r="J73">
+        <v>1587.8</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1985.5</v>
+      </c>
+      <c r="O73">
+        <v>4112.7</v>
+      </c>
+      <c r="P73">
+        <v>1587.8</v>
+      </c>
+      <c r="Q73">
+        <v>-19.7</v>
+      </c>
+      <c r="R73">
+        <v>43404</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>-338.3</v>
+      </c>
+      <c r="U73">
+        <v>875.7</v>
+      </c>
+      <c r="V73">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-134.6</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>84.4</v>
+      </c>
+      <c r="AA73">
+        <v>-23.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>64.7</v>
+      </c>
+      <c r="D74">
+        <v>737.3</v>
+      </c>
+      <c r="E74">
+        <v>474.3</v>
+      </c>
+      <c r="F74">
+        <v>665.2</v>
+      </c>
+      <c r="G74">
+        <v>1620</v>
+      </c>
+      <c r="H74">
+        <v>4729.2</v>
+      </c>
+      <c r="I74">
+        <v>101.6</v>
+      </c>
+      <c r="J74">
+        <v>2087.6999999999998</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2301.1999999999998</v>
+      </c>
+      <c r="O74">
+        <v>4940.1000000000004</v>
+      </c>
+      <c r="P74">
+        <v>2087.6999999999998</v>
+      </c>
+      <c r="Q74">
+        <v>10.3</v>
+      </c>
+      <c r="R74">
+        <v>43496</v>
+      </c>
+      <c r="S74">
+        <v>9600</v>
+      </c>
+      <c r="T74">
+        <v>-210.9</v>
+      </c>
+      <c r="U74">
+        <v>886</v>
+      </c>
+      <c r="V74">
+        <v>311.5</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>443.8</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>271.89999999999998</v>
+      </c>
+      <c r="AA74">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>-24.2</v>
+      </c>
+      <c r="D75">
+        <v>735.5</v>
+      </c>
+      <c r="E75">
+        <v>268.10000000000002</v>
+      </c>
+      <c r="F75">
+        <v>662</v>
+      </c>
+      <c r="G75">
+        <v>1422.3</v>
+      </c>
+      <c r="H75">
+        <v>4808.5</v>
+      </c>
+      <c r="I75">
+        <v>98</v>
+      </c>
+      <c r="J75">
+        <v>1963.3</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-125</v>
+      </c>
+      <c r="N75">
+        <v>2220.6999999999998</v>
+      </c>
+      <c r="O75">
+        <v>5053.8</v>
+      </c>
+      <c r="P75">
+        <v>2288.1</v>
+      </c>
+      <c r="Q75">
+        <v>-2.8</v>
+      </c>
+      <c r="R75">
+        <v>43585</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-245.3</v>
+      </c>
+      <c r="U75">
+        <v>883.2</v>
+      </c>
+      <c r="V75">
+        <v>221.2</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-192.4</v>
+      </c>
+      <c r="Y75">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="Z75">
+        <v>-15.2</v>
+      </c>
+      <c r="AA75">
+        <v>-24.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D76">
+        <v>796.8</v>
+      </c>
+      <c r="E76">
+        <v>347.4</v>
+      </c>
+      <c r="F76">
+        <v>725.9</v>
+      </c>
+      <c r="G76">
+        <v>1515.5</v>
+      </c>
+      <c r="H76">
+        <v>4872.7</v>
+      </c>
+      <c r="I76">
+        <v>93</v>
+      </c>
+      <c r="J76">
+        <v>1389.8</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2707.3</v>
+      </c>
+      <c r="O76">
+        <v>5067</v>
+      </c>
+      <c r="P76">
+        <v>2156</v>
+      </c>
+      <c r="Q76">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="R76">
+        <v>43677</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-194.3</v>
+      </c>
+      <c r="U76">
+        <v>923.9</v>
+      </c>
+      <c r="V76">
+        <v>219.3</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-173.7</v>
+      </c>
+      <c r="Y76">
+        <v>258.10000000000002</v>
+      </c>
+      <c r="Z76">
+        <v>22.7</v>
+      </c>
+      <c r="AA76">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>66.7</v>
+      </c>
+      <c r="D77">
+        <v>842.7</v>
+      </c>
+      <c r="E77">
+        <v>520.29999999999995</v>
+      </c>
+      <c r="F77">
+        <v>771.9</v>
+      </c>
+      <c r="G77">
+        <v>1706.8</v>
+      </c>
+      <c r="H77">
+        <v>5036.6000000000004</v>
+      </c>
+      <c r="I77">
+        <v>106.1</v>
+      </c>
+      <c r="J77">
+        <v>1290.3</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2840.2</v>
+      </c>
+      <c r="O77">
+        <v>5208.1000000000004</v>
+      </c>
+      <c r="P77">
+        <v>2043.5</v>
+      </c>
+      <c r="Q77">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="R77">
+        <v>43769</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>-171.5</v>
+      </c>
+      <c r="U77">
+        <v>956.2</v>
+      </c>
+      <c r="V77">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-233.9</v>
+      </c>
+      <c r="Y77">
+        <v>239.8</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="D78">
+        <v>899.3</v>
+      </c>
+      <c r="E78">
+        <v>652.29999999999995</v>
+      </c>
+      <c r="F78">
+        <v>824.6</v>
+      </c>
+      <c r="G78">
+        <v>2659.3</v>
+      </c>
+      <c r="H78">
+        <v>6179.3</v>
+      </c>
+      <c r="I78">
+        <v>83.7</v>
+      </c>
+      <c r="J78">
+        <v>1635.1</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3219.2</v>
+      </c>
+      <c r="O78">
+        <v>6318.4</v>
+      </c>
+      <c r="P78">
+        <v>2544.6</v>
+      </c>
+      <c r="Q78">
+        <v>818.5</v>
+      </c>
+      <c r="R78">
+        <v>43861</v>
+      </c>
+      <c r="S78">
+        <v>10100</v>
+      </c>
+      <c r="T78">
+        <v>-139.1</v>
+      </c>
+      <c r="U78">
+        <v>1774.7</v>
+      </c>
+      <c r="V78">
+        <v>698.2</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="Y78">
+        <v>411.7</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>131.80000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>66.5</v>
+      </c>
+      <c r="D79">
+        <v>885.7</v>
+      </c>
+      <c r="E79">
+        <v>356.5</v>
+      </c>
+      <c r="F79">
+        <v>811.4</v>
+      </c>
+      <c r="G79">
+        <v>2024.3</v>
+      </c>
+      <c r="H79">
+        <v>5543.9</v>
+      </c>
+      <c r="I79">
+        <v>85.2</v>
+      </c>
+      <c r="J79">
+        <v>1635.6</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-450</v>
+      </c>
+      <c r="N79">
+        <v>2578.3000000000002</v>
+      </c>
+      <c r="O79">
+        <v>5683</v>
+      </c>
+      <c r="P79">
+        <v>2083.6</v>
+      </c>
+      <c r="Q79">
+        <v>-385</v>
+      </c>
+      <c r="R79">
+        <v>43951</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-139.1</v>
+      </c>
+      <c r="U79">
+        <v>1389.7</v>
+      </c>
+      <c r="V79">
+        <v>327.3</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-630.20000000000005</v>
+      </c>
+      <c r="Y79">
+        <v>402</v>
+      </c>
+      <c r="Z79">
+        <v>-11</v>
+      </c>
+      <c r="AA79">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>98.2</v>
+      </c>
+      <c r="D80">
+        <v>913.1</v>
+      </c>
+      <c r="E80">
+        <v>490.1</v>
+      </c>
+      <c r="F80">
+        <v>839.7</v>
+      </c>
+      <c r="G80">
+        <v>2203.9</v>
+      </c>
+      <c r="H80">
+        <v>5747.3</v>
+      </c>
+      <c r="I80">
+        <v>99.2</v>
+      </c>
+      <c r="J80">
+        <v>1636.1</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2619.6</v>
+      </c>
+      <c r="O80">
+        <v>5680</v>
+      </c>
+      <c r="P80">
+        <v>2083.1999999999998</v>
+      </c>
+      <c r="Q80">
+        <v>50.1</v>
+      </c>
+      <c r="R80">
+        <v>44043</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>67.3</v>
+      </c>
+      <c r="U80">
+        <v>1439.8</v>
+      </c>
+      <c r="V80">
+        <v>91.2</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-12.4</v>
+      </c>
+      <c r="Y80">
+        <v>393.3</v>
+      </c>
+      <c r="Z80">
+        <v>5</v>
+      </c>
+      <c r="AA80">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="D81">
+        <v>952.4</v>
+      </c>
+      <c r="E81">
+        <v>540.4</v>
+      </c>
+      <c r="F81">
+        <v>876.5</v>
+      </c>
+      <c r="G81">
+        <v>2339.8000000000002</v>
+      </c>
+      <c r="H81">
+        <v>5944.5</v>
+      </c>
+      <c r="I81">
+        <v>121.3</v>
+      </c>
+      <c r="J81">
+        <v>1636.6</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2811.6</v>
+      </c>
+      <c r="O81">
+        <v>5875.2</v>
+      </c>
+      <c r="P81">
+        <v>2098.9</v>
+      </c>
+      <c r="Q81">
+        <v>97.2</v>
+      </c>
+      <c r="R81">
+        <v>44135</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>69.3</v>
+      </c>
+      <c r="U81">
+        <v>1537</v>
+      </c>
+      <c r="V81">
+        <v>361.1</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-201.4</v>
+      </c>
+      <c r="Y81">
+        <v>398.2</v>
+      </c>
+      <c r="Z81">
+        <v>2</v>
+      </c>
+      <c r="AA81">
+        <v>132.19999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>911.3</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1039.2</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>643.1</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>957.3</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2699.2</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7279.8</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>122.5</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1637.2</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>3254.7</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>6314.3</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2104.6</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>235.2</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44227</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>11500</v>
+      </c>
+      <c r="T82">
         <v>965.5</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1772.2</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>657.6</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-202.8</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>396</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>911.3</v>
       </c>
     </row>
